--- a/data/trans_orig/P79A5_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P79A5_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>23331</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17862</v>
+        <v>18230</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27916</v>
+        <v>27425</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.7342703515461825</v>
+        <v>0.7342703515461826</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5621674050357123</v>
+        <v>0.5737539717511668</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8785815989035822</v>
+        <v>0.8631388470807838</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -762,19 +762,19 @@
         <v>19546</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14725</v>
+        <v>14939</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22837</v>
+        <v>23028</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.76147359241145</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5736617901480754</v>
+        <v>0.5820279362382081</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8897260426877059</v>
+        <v>0.8971615703529919</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>50</v>
@@ -783,19 +783,19 @@
         <v>42876</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35894</v>
+        <v>35689</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48270</v>
+        <v>48862</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7464260401414092</v>
+        <v>0.7464260401414093</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6248740849611718</v>
+        <v>0.6213097106445996</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8403191163413072</v>
+        <v>0.8506361002737498</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>8443</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3858</v>
+        <v>4349</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13912</v>
+        <v>13544</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2657296484538175</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1214184010964178</v>
+        <v>0.1368611529192162</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4378325949642877</v>
+        <v>0.4262460282488331</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -833,19 +833,19 @@
         <v>6122</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2831</v>
+        <v>2640</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10943</v>
+        <v>10729</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2385264075885501</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1102739573122945</v>
+        <v>0.1028384296470079</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4263382098519252</v>
+        <v>0.4179720637617915</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -854,19 +854,19 @@
         <v>14566</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9172</v>
+        <v>8580</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21548</v>
+        <v>21753</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2535739598585907</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1596808836586933</v>
+        <v>0.1493638997262502</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3751259150388283</v>
+        <v>0.3786902893554007</v>
       </c>
     </row>
     <row r="6">
@@ -958,7 +958,7 @@
         <v>11335</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6680</v>
+        <v>6721</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>12205</v>
@@ -967,7 +967,7 @@
         <v>0.928683165341786</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5473456446910812</v>
+        <v>0.5506545082132448</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -979,19 +979,19 @@
         <v>12701</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9279</v>
+        <v>9618</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14128</v>
+        <v>14144</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8585977766528406</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6272641532259088</v>
+        <v>0.6501427447198476</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9550199974820934</v>
+        <v>0.9561082774793948</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -1000,19 +1000,19 @@
         <v>24037</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20037</v>
+        <v>19984</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>26277</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8902814573514681</v>
+        <v>0.8902814573514684</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7421533474726197</v>
+        <v>0.7401646334287784</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9732420816623093</v>
+        <v>0.9732461579747491</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5525</v>
+        <v>5484</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07131683465821408</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4526543553089194</v>
+        <v>0.4493454917867561</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1050,19 +1050,19 @@
         <v>2092</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5514</v>
+        <v>5175</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1414022233471593</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04498000251790646</v>
+        <v>0.04389172252060525</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3727358467740923</v>
+        <v>0.3498572552801523</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -1074,16 +1074,16 @@
         <v>722</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6962</v>
+        <v>7015</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1097185426485319</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02675791833769073</v>
+        <v>0.0267538420252509</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2578466525273803</v>
+        <v>0.259835366571222</v>
       </c>
     </row>
     <row r="9">
@@ -1205,7 +1205,7 @@
         <v>0.5735237767729962</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1611225275751562</v>
+        <v>0.161168564905738</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -1217,19 +1217,19 @@
         <v>4378</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1660</v>
+        <v>1646</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6277</v>
+        <v>6237</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.627932910827855</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2380818299315072</v>
+        <v>0.2360183788186977</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9003813424511483</v>
+        <v>0.8945357226277023</v>
       </c>
     </row>
     <row r="11">
@@ -1288,19 +1288,19 @@
         <v>2594</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>694</v>
+        <v>735</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5312</v>
+        <v>5325</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.372067089172145</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09951395233265208</v>
+        <v>0.1053744555625648</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7619181700684927</v>
+        <v>0.7638280290240159</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>36725</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30472</v>
+        <v>29642</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42073</v>
+        <v>41172</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.7829098225848206</v>
+        <v>0.7829098225848208</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6496181376544554</v>
+        <v>0.6319128372185565</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8969337726780046</v>
+        <v>0.8777225746063466</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -1413,19 +1413,19 @@
         <v>34566</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29082</v>
+        <v>29187</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38957</v>
+        <v>38877</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.7766793965992853</v>
+        <v>0.7766793965992854</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6534516627295398</v>
+        <v>0.6558198130645958</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8753391610379334</v>
+        <v>0.8735485801946213</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>82</v>
@@ -1434,19 +1434,19 @@
         <v>71291</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>63054</v>
+        <v>63065</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>78208</v>
+        <v>78201</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.7798764834244846</v>
+        <v>0.7798764834244849</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6897675212564072</v>
+        <v>0.6898889039084847</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8555444733097026</v>
+        <v>0.8554703021197981</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>10183</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4835</v>
+        <v>5736</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16436</v>
+        <v>17266</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2170901774151792</v>
+        <v>0.2170901774151793</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.103066227321996</v>
+        <v>0.1222774253936535</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3503818623455462</v>
+        <v>0.3680871627814439</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -1484,19 +1484,19 @@
         <v>9939</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5548</v>
+        <v>5628</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15423</v>
+        <v>15318</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2233206034007148</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1246608389620668</v>
+        <v>0.1264514198053785</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.346548337270461</v>
+        <v>0.3441801869354043</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>24</v>
@@ -1505,19 +1505,19 @@
         <v>20122</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>13205</v>
+        <v>13212</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>28359</v>
+        <v>28348</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2201235165755154</v>
+        <v>0.2201235165755155</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1444555266902974</v>
+        <v>0.1445296978802019</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3102324787435927</v>
+        <v>0.3101110960915158</v>
       </c>
     </row>
     <row r="15">
